--- a/カンバンToDoアプリ設計.xlsx
+++ b/カンバンToDoアプリ設計.xlsx
@@ -50,26 +50,41 @@
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.556cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
+    <style:style style:name="ro3" style:family="table-row">
+      <style:table-row-properties style:row-height="0.469cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
     <style:style style:name="ro2" style:family="table-row">
       <style:table-row-properties style:row-height="0.554cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro3" style:family="table-row">
-      <style:table-row-properties style:row-height="0.469cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
     <style:style style:name="ro4" style:family="table-row">
       <style:table-row-properties style:row-height="1.584cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_画面設計">
-      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
-    </style:style>
     <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_テーブル設計">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_URL設計">
+    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_画面設計">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+    <style:style style:name="ta4" style:family="table" style:master-page-name="PageStyle_5f_URL設計">
+      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
+    </style:style>
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #f6f8f9" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #f6f8f9" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
@@ -113,38 +128,53 @@
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #f6f8f9" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #f6f8f9" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #f6f8f9" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #f6f8f9" style:direction="ltr" fo:border-right="0.035cm solid #f6f8f9" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #f6f8f9" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
@@ -167,7 +197,7 @@
       <table:calculation-settings table:case-sensitive="false" table:automatic-find-labels="false" table:use-regular-expressions="false">
         <table:iteration table:maximum-difference="0.0001"/>
       </table:calculation-settings>
-      <table:table table:name="画面設計" table:style-name="ta1" table:print="false">
+      <table:table table:name="画面設計" table:style-name="ta3" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
@@ -175,7 +205,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>1. メイン画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -196,7 +226,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>2. タスク詳細画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -217,7 +247,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>3. タスク入力ポップアップ</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -456,7 +486,8 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="URL設計" table:style-name="ta3" table:print="false">
+      <table:table table:name="URL設計" table:style-name="ta4" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -468,85 +499,101 @@
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce18" office:value-type="string">
             <text:p>URL</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string">
             <text:p>Method</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string">
             <text:p>Content Type</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce10" office:value-type="string">
+          <table:table-cell table:style-name="ce24" office:value-type="string">
             <text:p>目的</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce3" office:value-type="string">
-            <text:p>/tasks/</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>/api/tasks/</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>GET</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
-            <text:p>HTTP</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce11" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce25" office:value-type="string">
             <text:p>一覧取得</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce4" office:value-type="string">
-            <text:p>/tasks/new/</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>/api/tasks/new/</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
-            <text:p>HTTP</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce25" office:value-type="string">
             <text:p>新規登録</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce3" office:value-type="string">
-            <text:p>/tasks/{id}/</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>/api/tasks/{id}/</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>GET</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
-            <text:p>HTTP</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce11" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce25" office:value-type="string">
             <text:p>詳細取得</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce14" office:value-type="string">
-            <text:p>/tasks/{id}/</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>/api/tasks/{id}/</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>PUT</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="string">
-            <text:p>HTTP</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce16" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce25" office:value-type="string">
             <text:p>編集</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048568">
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce20" office:value-type="string">
+            <text:p>/api/tasks/{id}/status</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce23" office:value-type="string">
+            <text:p>PATCH</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce23" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce26" office:value-type="string">
+            <text:p>状態更新</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048567">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -565,12 +612,12 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2025-07-31T22:08:01</dc:date>
+    <dc:date>2025-08-02T23:46:55</dc:date>
     <dc:creator>minami hirata</dc:creator>
     <meta:generator>OpenOffice/4.1.13$Unix OpenOffice.org_project/4113m1$Build-9810</meta:generator>
-    <meta:editing-duration>PT3M46S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="3" meta:cell-count="70" meta:object-count="3"/>
+    <meta:editing-duration>PT7M50S</meta:editing-duration>
+    <meta:editing-cycles>3</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="3" meta:cell-count="74" meta:object-count="3"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -588,8 +635,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="URL設計">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">8</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -630,13 +677,13 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">4</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">画面設計</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">URL設計</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">664</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
@@ -730,69 +777,69 @@
     <number:number-style style:name="N8000" number:language="ja" number:country="JP">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:number-style style:name="N8108P0" style:volatile="true" number:language="ja" number:country="JP">
-      <number:text>¥</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8108" number:language="ja" number:country="JP">
-      <number:text>-¥</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8108P0"/>
-    </number:number-style>
     <number:number-style style:name="N8109P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>¥</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
     <number:number-style style:name="N8109" number:language="ja" number:country="JP">
+      <number:text>-¥</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8109P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8110P0" style:volatile="true" number:language="ja" number:country="JP">
+      <number:text>¥</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8110" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-¥</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8109P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8110P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8110P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8112P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
-    <number:number-style style:name="N8110" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8112" number:language="ja" number:country="JP">
       <number:text>-¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8110P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8111P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8112P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8113P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
-    <number:number-style style:name="N8111" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8113" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8111P0"/>
-    </number:number-style>
-    <number:date-style style:name="N8112" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8113P0"/>
+    </number:number-style>
+    <number:date-style style:name="N8114" number:language="ja" number:country="JP">
       <number:day number:style="long"/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N8113" number:language="ja" number:country="JP">
+    <number:date-style style:name="N8115" number:language="ja" number:country="JP">
       <number:day number:style="long"/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
     </number:date-style>
-    <number:date-style style:name="N8114" number:language="ja" number:country="JP">
+    <number:date-style style:name="N8116" number:language="ja" number:country="JP">
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:time-style style:name="N8115" number:language="ja" number:country="JP">
+    <number:time-style style:name="N8117" number:language="ja" number:country="JP">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:time-style style:name="N8116" number:language="ja" number:country="JP">
+    <number:time-style style:name="N8118" number:language="ja" number:country="JP">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
@@ -801,14 +848,14 @@
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:time-style style:name="N8117" number:language="ja" number:country="JP">
+    <number:time-style style:name="N8119" number:language="ja" number:country="JP">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:date-style style:name="N8118" number:language="ja" number:country="JP">
+    <number:date-style style:name="N8120" number:language="ja" number:country="JP">
       <number:year number:style="long"/>
       <number:text>/</number:text>
       <number:month number:style="long"/>
@@ -819,53 +866,53 @@
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
     </number:date-style>
-    <number:currency-style style:name="N8119P0" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8122P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>$</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8119" number:language="ja" number:country="JP">
+    </number:number-style>
+    <number:number-style style:name="N8122" number:language="ja" number:country="JP">
       <number:text>($</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8119P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N8120P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8122P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8123P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>$</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8120" number:language="ja" number:country="JP">
+    </number:number-style>
+    <number:number-style style:name="N8123" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>($</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8120P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N8121P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8123P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8125P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>$</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8121" number:language="ja" number:country="JP">
+    </number:number-style>
+    <number:number-style style:name="N8125" number:language="ja" number:country="JP">
       <number:text>($</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8121P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N8122P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8125P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8126P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>$</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8122" number:language="ja" number:country="JP">
+    </number:number-style>
+    <number:number-style style:name="N8126" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>($</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8122P0"/>
-    </number:currency-style>
-    <number:date-style style:name="N8123" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8126P0"/>
+    </number:number-style>
+    <number:date-style style:name="N8127" number:language="ja" number:country="JP">
       <number:era number:calendar="gengou"/>
       <number:year number:calendar="gengou"/>
       <number:text>.</number:text>
@@ -873,7 +920,7 @@
       <number:text>.</number:text>
       <number:day number:calendar="gengou" number:style="long"/>
     </number:date-style>
-    <number:date-style style:name="N8124" number:language="ja" number:country="JP">
+    <number:date-style style:name="N8128" number:language="ja" number:country="JP">
       <number:era number:calendar="gengou" number:style="long"/>
       <number:year number:calendar="gengou"/>
       <number:text>年</number:text>
@@ -882,14 +929,14 @@
       <number:day number:calendar="gengou" number:style="long"/>
       <number:text>日</number:text>
     </number:date-style>
-    <number:date-style style:name="N8125" number:language="ja" number:country="JP">
+    <number:date-style style:name="N8129" number:language="ja" number:country="JP">
       <number:month number:style="long"/>
       <number:text>/</number:text>
       <number:day number:style="long"/>
       <number:text>/</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N8126" number:language="ja" number:country="JP">
+    <number:date-style style:name="N8130" number:language="ja" number:country="JP">
       <number:year number:style="long"/>
       <number:text>年</number:text>
       <number:month number:style="long"/>
@@ -897,13 +944,13 @@
       <number:day number:style="long"/>
       <number:text>日</number:text>
     </number:date-style>
-    <number:time-style style:name="N8127" number:language="ja" number:country="JP">
+    <number:time-style style:name="N8131" number:language="ja" number:country="JP">
       <number:hours/>
       <number:text>時</number:text>
       <number:minutes number:style="long"/>
       <number:text>分</number:text>
     </number:time-style>
-    <number:time-style style:name="N8128" number:language="ja" number:country="JP">
+    <number:time-style style:name="N8132" number:language="ja" number:country="JP">
       <number:hours/>
       <number:text>時</number:text>
       <number:minutes number:style="long"/>
@@ -911,158 +958,152 @@
       <number:seconds number:style="long"/>
       <number:text>秒</number:text>
     </number:time-style>
-    <number:date-style style:name="N8129" number:language="ja" number:country="JP">
+    <number:date-style style:name="N8133" number:language="ja" number:country="JP">
       <number:year number:style="long"/>
       <number:text>年</number:text>
       <number:month number:style="long"/>
       <number:text>月</number:text>
     </number:date-style>
-    <number:date-style style:name="N8130" number:language="ja" number:country="JP">
+    <number:date-style style:name="N8134" number:language="ja" number:country="JP">
       <number:month number:style="long"/>
       <number:text>月</number:text>
       <number:day number:style="long"/>
       <number:text>日</number:text>
     </number:date-style>
-    <number:number-style style:name="N8131P0" style:volatile="true" number:language="ja" number:country="JP">
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8131" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8135P0" style:volatile="true" number:language="ja" number:country="JP">
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8135" number:language="ja" number:country="JP">
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8131P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8132P0" style:volatile="true" number:language="ja" number:country="JP">
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8132" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8135P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8136P0" style:volatile="true" number:language="ja" number:country="JP">
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8136" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8132P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8133P0" style:volatile="true" number:language="ja" number:country="JP">
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8133" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8136P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8137P0" style:volatile="true" number:language="ja" number:country="JP">
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8137" number:language="ja" number:country="JP">
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8133P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8134P0" style:volatile="true" number:language="ja" number:country="JP">
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N8134" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8137P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8138P0" style:volatile="true" number:language="ja" number:country="JP">
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N8138" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8134P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8135P0" style:volatile="true" number:language="ja" number:country="JP">
-      <number:text> </number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8135P1" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8138P0"/>
+    </number:number-style>
+    <number:number-style style:name="N8142P0" style:volatile="true" number:language="ja" number:country="JP">
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N8142P1" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N8135P2" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8142P2" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> - </number:text>
     </number:number-style>
-    <number:text-style style:name="N8135" number:language="ja" number:country="JP">
-      <number:text> </number:text>
+    <number:text-style style:name="N8142" number:language="ja" number:country="JP">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8135P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8135P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8135P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8142P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8142P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8142P2"/>
     </number:text-style>
-    <number:number-style style:name="N8136P0" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8146P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> ¥</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N8136P1" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8146P1" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>-¥</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N8136P2" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8146P2" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> ¥- </number:text>
     </number:number-style>
-    <number:text-style style:name="N8136" number:language="ja" number:country="JP">
-      <number:text> </number:text>
+    <number:text-style style:name="N8146" number:language="ja" number:country="JP">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8136P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8136P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8136P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8146P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8146P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8146P2"/>
     </number:text-style>
-    <number:number-style style:name="N8137P0" style:volatile="true" number:language="ja" number:country="JP">
-      <number:text> </number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8137P1" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8150P0" style:volatile="true" number:language="ja" number:country="JP">
+      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N8150P1" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N8137P2" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8150P2" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> -</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N8137" number:language="ja" number:country="JP">
-      <number:text> </number:text>
+    <number:text-style style:name="N8150" number:language="ja" number:country="JP">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8137P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8137P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8137P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8150P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8150P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8150P2"/>
     </number:text-style>
-    <number:number-style style:name="N8138P0" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8154P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> ¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N8138P1" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8154P1" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>-¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N8138P2" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8154P2" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> ¥-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N8138" number:language="ja" number:country="JP">
-      <number:text> </number:text>
+    <number:text-style style:name="N8154" number:language="ja" number:country="JP">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8138P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8138P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8138P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N8154P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N8154P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N8154P2"/>
     </number:text-style>
-    <number:time-style style:name="N8139" number:language="ja" number:country="JP">
+    <number:time-style style:name="N8155" number:language="ja" number:country="JP">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N8140" number:language="ja" number:country="JP" number:truncate-on-overflow="false">
+    <number:time-style style:name="N8156" number:language="ja" number:country="JP" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N8141" number:language="ja" number:country="JP">
+    <number:time-style style:name="N8157" number:language="ja" number:country="JP">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:number-style style:name="N8142" number:language="ja" number:country="JP">
+    <number:number-style style:name="N8158" number:language="ja" number:country="JP">
       <number:scientific-number number:decimal-places="1" number:min-integer-digits="3" number:min-exponent-digits="1"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
@@ -1147,9 +1188,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2025-07-31">2025/07/31</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2025-08-02">2025/08/02</text:date>
             , 
-            <text:time>22:08:01</text:time>
+            <text:time>23:46:55</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/カンバンToDoアプリ設計.xlsx
+++ b/カンバンToDoアプリ設計.xlsx
@@ -7,9 +7,9 @@
   <manifest:file-entry manifest:media-type="application/vnd.oasis.opendocument.spreadsheet" manifest:version="1.2" manifest:full-path="/"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Thumbnails/thumbnail.png"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="settings.xml"/>
-  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000201000002200000025C66C05197.png"/>
-  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000201000002DA000002F9B0A8D8B4.png"/>
-  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000201000005A00000018124283325.png"/>
+  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/1000020100000287000002C289C63648.png"/>
+  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/100002010000029D000002B96B6DDC35.png"/>
+  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/1000020100000307000001A621117985.png"/>
   <manifest:file-entry manifest:media-type="" manifest:full-path="Configurations2/accelerator/current.xml"/>
   <manifest:file-entry manifest:media-type="application/vnd.sun.xml.ui.configuration" manifest:full-path="Configurations2/"/>
   <manifest:file-entry manifest:media-type="application/rdf+xml" manifest:full-path="manifest.rdf"/>
@@ -50,23 +50,68 @@
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.556cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
+    <style:style style:name="ro2" style:family="table-row">
+      <style:table-row-properties style:row-height="0.554cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
     <style:style style:name="ro3" style:family="table-row">
       <style:table-row-properties style:row-height="0.469cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro2" style:family="table-row">
-      <style:table-row-properties style:row-height="0.554cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
     <style:style style:name="ro4" style:family="table-row">
       <style:table-row-properties style:row-height="1.584cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
+    <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_画面設計">
+      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
+    </style:style>
     <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_テーブル設計">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_画面設計">
+    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_URL設計">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta4" style:family="table" style:master-page-name="PageStyle_5f_URL設計">
-      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
+    <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #356854" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #f6f8f9" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #f6f8f9" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #356854" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #ffffff" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #f6f8f9" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
@@ -88,92 +133,47 @@
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #356854" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #f6f8f9" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #f6f8f9" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #356854" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #ffffff" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #f6f8f9" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
@@ -181,15 +181,8 @@
     <style:style style:name="gr1" style:family="graphic">
       <style:graphic-properties draw:stroke="solid" svg:stroke-color="#000000" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
     </style:style>
-    <style:style style:name="gr2" style:family="graphic">
-      <style:graphic-properties draw:stroke="solid" svg:stroke-width="0cm" svg:stroke-color="#000000" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:padding-top="0.125cm" fo:padding-bottom="0.125cm" fo:padding-left="0.25cm" fo:padding-right="0.25cm" fo:wrap-option="wrap" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
-    </style:style>
     <style:style style:name="P1" style:family="paragraph">
       <style:paragraph-properties fo:text-align="center"/>
-    </style:style>
-    <style:style style:name="P2" style:family="paragraph">
-      <style:paragraph-properties fo:text-align="center"/>
-      <style:text-properties fo:font-size="18pt"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -197,7 +190,7 @@
       <table:calculation-settings table:case-sensitive="false" table:automatic-find-labels="false" table:use-regular-expressions="false">
         <table:iteration table:maximum-difference="0.0001"/>
       </table:calculation-settings>
-      <table:table table:name="画面設計" table:style-name="ta3" table:print="false">
+      <table:table table:name="画面設計" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
@@ -205,7 +198,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce17" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string">
             <text:p>1. メイン画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -213,8 +206,8 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="画面設計.M17" table:end-x="2.236cm" table:end-y="0.111cm" draw:z-index="2" draw:name="Graphics 1" draw:style-name="gr1" draw:text-style-name="P1" svg:width="28.402cm" svg:height="7.619cm" svg:x="0.954cm" svg:y="0.242cm">
-              <draw:image xlink:href="Pictures/10000201000005A00000018124283325.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+            <draw:frame table:end-cell-address="画面設計.H18" table:end-x="1.557cm" table:end-y="0.194cm" draw:z-index="0" draw:name="Graphics 1" draw:style-name="gr1" draw:text-style-name="P1" svg:width="15.285cm" svg:height="8.351cm" svg:x="1.065cm" svg:y="0.146cm">
+              <draw:image xlink:href="Pictures/1000020100000307000001A621117985.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
             </draw:frame>
@@ -226,7 +219,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce17" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string">
             <text:p>2. タスク詳細画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -234,8 +227,8 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="画面設計.I56" table:end-x="2.237cm" table:end-y="0.018cm" draw:z-index="0" draw:name="image1.png" draw:style-name="gr2" draw:text-style-name="P2" svg:width="18.467cm" svg:height="19.208cm" svg:x="1.028cm" svg:y="0.184cm">
-              <draw:image xlink:href="Pictures/10000201000002DA000002F9B0A8D8B4.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+            <draw:frame table:end-cell-address="画面設計.I56" table:end-x="1.066cm" table:end-y="0.03cm" draw:z-index="2" draw:name="Graphics 3" draw:style-name="gr1" draw:text-style-name="P1" svg:width="17.232cm" svg:height="19.345cm" svg:x="1.092cm" svg:y="0.059cm">
+              <draw:image xlink:href="Pictures/100002010000029D000002B96B6DDC35.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
             </draw:frame>
@@ -247,16 +240,16 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce17" office:value-type="string">
-            <text:p>3. タスク入力ポップアップ</text:p>
+          <table:table-cell table:style-name="ce1" office:value-type="string">
+            <text:p>3. タスク入力画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="画面設計.G86" table:end-x="2.247cm" table:end-y="0.188cm" draw:z-index="1" draw:name="image2.png" draw:style-name="gr2" draw:text-style-name="P2" svg:width="13.546cm" svg:height="15.027cm" svg:x="1.028cm" svg:y="0.107cm">
-              <draw:image xlink:href="Pictures/10000201000002200000025C66C05197.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+            <draw:frame table:end-cell-address="画面設計.I89" table:end-x="1.094cm" table:end-y="0.378cm" draw:z-index="1" draw:name="Graphics 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="17.175cm" svg:height="16.868cm" svg:x="1.177cm" svg:y="0.117cm">
+              <draw:image xlink:href="Pictures/1000020100000287000002C289C63648.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
             </draw:frame>
@@ -271,6 +264,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="テーブル設計" table:style-name="ta2" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -486,7 +480,7 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="URL設計" table:style-name="ta4" table:print="false">
+      <table:table table:name="URL設計" table:style-name="ta3" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -499,96 +493,96 @@
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>URL</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce17" office:value-type="string">
+            <text:p>Method</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce17" office:value-type="string">
+            <text:p>Content Type</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce20" office:value-type="string">
+            <text:p>目的</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce15" office:value-type="string">
+            <text:p>/api/tasks/</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce18" office:value-type="string">
-            <text:p>URL</text:p>
+            <text:p>GET</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce18" office:value-type="string">
+            <text:p>JSON</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce21" office:value-type="string">
-            <text:p>Method</text:p>
+            <text:p>一覧取得</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce15" office:value-type="string">
+            <text:p>/api/tasks/new/{status}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce18" office:value-type="string">
+            <text:p>POST</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce18" office:value-type="string">
+            <text:p>JSON</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce21" office:value-type="string">
-            <text:p>Content Type</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce24" office:value-type="string">
-            <text:p>目的</text:p>
+            <text:p>新規登録</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
+          <table:table-cell table:style-name="ce15" office:value-type="string">
+            <text:p>/api/tasks/{id}/</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce18" office:value-type="string">
+            <text:p>GET</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce18" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce21" office:value-type="string">
+            <text:p>詳細取得</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce15" office:value-type="string">
+            <text:p>/api/tasks/{id}/</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce18" office:value-type="string">
+            <text:p>PUT</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce18" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce21" office:value-type="string">
+            <text:p>編集</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce16" office:value-type="string">
+            <text:p>/api/tasks/{id}/status</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce19" office:value-type="string">
-            <text:p>/api/tasks/</text:p>
+            <text:p>PATCH</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>JSON</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce22" office:value-type="string">
-            <text:p>GET</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
-            <text:p>JSON</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce25" office:value-type="string">
-            <text:p>一覧取得</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
-            <text:p>/api/tasks/new/</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
-            <text:p>POST</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
-            <text:p>JSON</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce25" office:value-type="string">
-            <text:p>新規登録</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
-            <text:p>/api/tasks/{id}/</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
-            <text:p>GET</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
-            <text:p>JSON</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce25" office:value-type="string">
-            <text:p>詳細取得</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
-            <text:p>/api/tasks/{id}/</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
-            <text:p>PUT</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
-            <text:p>JSON</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce25" office:value-type="string">
-            <text:p>編集</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce20" office:value-type="string">
-            <text:p>/api/tasks/{id}/status</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
-            <text:p>PATCH</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
-            <text:p>JSON</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce26" office:value-type="string">
             <text:p>状態更新</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -612,11 +606,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2025-08-02T23:46:55</dc:date>
+    <dc:date>2025-08-10T02:42:27</dc:date>
     <dc:creator>minami hirata</dc:creator>
     <meta:generator>OpenOffice/4.1.13$Unix OpenOffice.org_project/4113m1$Build-9810</meta:generator>
-    <meta:editing-duration>PT7M50S</meta:editing-duration>
-    <meta:editing-cycles>3</meta:editing-cycles>
+    <meta:editing-duration>PT6H54M54S</meta:editing-duration>
+    <meta:editing-cycles>6</meta:editing-cycles>
     <meta:document-statistic meta:table-count="3" meta:cell-count="74" meta:object-count="3"/>
   </office:meta>
 </office:document-meta>
@@ -626,17 +620,17 @@
 <office:document-settings xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:config="urn:oasis:names:tc:opendocument:xmlns:config:1.0" xmlns:ooo="http://openoffice.org/2004/office" office:version="1.2">
   <office:settings>
     <config:config-item-set config:name="ooo:view-settings">
-      <config:config-item config:name="VisibleAreaTop" config:type="int">553</config:config-item>
+      <config:config-item config:name="VisibleAreaTop" config:type="int">1107</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">2465</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">29586</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">47046</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">14329</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">2804</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="URL設計">
-              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">8</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">12</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -647,7 +641,7 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">70</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="テーブル設計">
@@ -663,12 +657,12 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">70</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="画面設計">
-              <config:config-item config:name="CursorPositionX" config:type="int">10</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">21</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -677,16 +671,16 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">4</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">48</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">70</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">URL設計</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">画面設計</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">664</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-          <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
+          <config:config-item config:name="ZoomValue" config:type="int">70</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">false</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
@@ -1188,9 +1182,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2025-08-02">2025/08/02</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2025-08-10">2025/08/10</text:date>
             , 
-            <text:time>23:46:55</text:time>
+            <text:time>02:42:27</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/カンバンToDoアプリ設計.xlsx
+++ b/カンバンToDoアプリ設計.xlsx
@@ -7,8 +7,7 @@
   <manifest:file-entry manifest:media-type="application/vnd.oasis.opendocument.spreadsheet" manifest:version="1.2" manifest:full-path="/"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Thumbnails/thumbnail.png"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="settings.xml"/>
-  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/1000020100000287000002C289C63648.png"/>
-  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/100002010000029D000002B96B6DDC35.png"/>
+  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/100002010000029D000002C0C9B7F330.png"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/1000020100000307000001A621117985.png"/>
   <manifest:file-entry manifest:media-type="" manifest:full-path="Configurations2/accelerator/current.xml"/>
   <manifest:file-entry manifest:media-type="application/vnd.sun.xml.ui.configuration" manifest:full-path="Configurations2/"/>
@@ -227,8 +226,8 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="画面設計.I56" table:end-x="1.066cm" table:end-y="0.03cm" draw:z-index="2" draw:name="Graphics 3" draw:style-name="gr1" draw:text-style-name="P1" svg:width="17.232cm" svg:height="19.345cm" svg:x="1.092cm" svg:y="0.059cm">
-              <draw:image xlink:href="Pictures/100002010000029D000002B96B6DDC35.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+            <draw:frame table:end-cell-address="画面設計.I55" table:end-x="1.037cm" table:end-y="0.379cm" draw:z-index="2" draw:name="Graphics 3" draw:style-name="gr1" draw:text-style-name="P1" svg:width="17.09cm" svg:height="19.141cm" svg:x="1.205cm" svg:y="0.059cm">
+              <draw:image xlink:href="Pictures/100002010000029D000002C0C9B7F330.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
             </draw:frame>
@@ -248,8 +247,8 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="画面設計.I89" table:end-x="1.094cm" table:end-y="0.378cm" draw:z-index="1" draw:name="Graphics 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="17.175cm" svg:height="16.868cm" svg:x="1.177cm" svg:y="0.117cm">
-              <draw:image xlink:href="Pictures/1000020100000287000002C289C63648.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+            <draw:frame table:end-cell-address="画面設計.I90" table:end-x="1.206cm" table:end-y="0.408cm" draw:z-index="1" draw:name="Graphics 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="16.923cm" svg:height="17.451cm" svg:x="1.541cm" svg:y="0.117cm">
+              <draw:image xlink:href="Pictures/100002010000029D000002C0C9B7F330.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
             </draw:frame>
@@ -264,7 +263,6 @@
         </table:table-row>
       </table:table>
       <table:table table:name="テーブル設計" table:style-name="ta2" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -481,7 +479,6 @@
         </table:table-row>
       </table:table>
       <table:table table:name="URL設計" table:style-name="ta3" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -606,11 +603,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2025-08-10T02:42:27</dc:date>
+    <dc:date>2025-08-10T03:11:21</dc:date>
     <dc:creator>minami hirata</dc:creator>
     <meta:generator>OpenOffice/4.1.13$Unix OpenOffice.org_project/4113m1$Build-9810</meta:generator>
-    <meta:editing-duration>PT6H54M54S</meta:editing-duration>
-    <meta:editing-cycles>6</meta:editing-cycles>
+    <meta:editing-duration>PT6H56M36S</meta:editing-duration>
+    <meta:editing-cycles>7</meta:editing-cycles>
     <meta:document-statistic meta:table-count="3" meta:cell-count="74" meta:object-count="3"/>
   </office:meta>
 </office:document-meta>
@@ -620,10 +617,10 @@
 <office:document-settings xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:config="urn:oasis:names:tc:opendocument:xmlns:config:1.0" xmlns:ooo="http://openoffice.org/2004/office" office:version="1.2">
   <office:settings>
     <config:config-item-set config:name="ooo:view-settings">
-      <config:config-item config:name="VisibleAreaTop" config:type="int">1107</config:config-item>
+      <config:config-item config:name="VisibleAreaTop" config:type="int">553</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">2465</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">14329</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">2804</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">19724</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">49261</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -661,8 +658,8 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="画面設計">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">21</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -671,7 +668,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">48</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">37</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">70</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -1184,7 +1181,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2025-08-10">2025/08/10</text:date>
             , 
-            <text:time>02:42:27</text:time>
+            <text:time>03:11:21</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/カンバンToDoアプリ設計.xlsx
+++ b/カンバンToDoアプリ設計.xlsx
@@ -8,7 +8,7 @@
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Thumbnails/thumbnail.png"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="settings.xml"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/100002010000029D000002C0C9B7F330.png"/>
-  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/1000020100000307000001A621117985.png"/>
+  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000201000002E4000001B09362B314.png"/>
   <manifest:file-entry manifest:media-type="" manifest:full-path="Configurations2/accelerator/current.xml"/>
   <manifest:file-entry manifest:media-type="application/vnd.sun.xml.ui.configuration" manifest:full-path="Configurations2/"/>
   <manifest:file-entry manifest:media-type="application/rdf+xml" manifest:full-path="manifest.rdf"/>
@@ -205,8 +205,8 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="画面設計.H18" table:end-x="1.557cm" table:end-y="0.194cm" draw:z-index="0" draw:name="Graphics 1" draw:style-name="gr1" draw:text-style-name="P1" svg:width="15.285cm" svg:height="8.351cm" svg:x="1.065cm" svg:y="0.146cm">
-              <draw:image xlink:href="Pictures/1000020100000307000001A621117985.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+            <draw:frame table:end-cell-address="画面設計.H18" table:end-x="1.009cm" table:end-y="0.447cm" draw:z-index="2" draw:name="Graphics 4" draw:style-name="gr1" draw:text-style-name="P1" svg:width="14.595cm" svg:height="8.549cm" svg:x="1.207cm" svg:y="0.201cm">
+              <draw:image xlink:href="Pictures/10000201000002E4000001B09362B314.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
             </draw:frame>
@@ -226,7 +226,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="画面設計.I55" table:end-x="1.037cm" table:end-y="0.379cm" draw:z-index="2" draw:name="Graphics 3" draw:style-name="gr1" draw:text-style-name="P1" svg:width="17.09cm" svg:height="19.141cm" svg:x="1.205cm" svg:y="0.059cm">
+            <draw:frame table:end-cell-address="画面設計.I55" table:end-x="1.037cm" table:end-y="0.379cm" draw:z-index="1" draw:name="Graphics 3" draw:style-name="gr1" draw:text-style-name="P1" svg:width="17.09cm" svg:height="19.141cm" svg:x="1.205cm" svg:y="0.059cm">
               <draw:image xlink:href="Pictures/100002010000029D000002C0C9B7F330.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -247,7 +247,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="画面設計.I90" table:end-x="1.206cm" table:end-y="0.408cm" draw:z-index="1" draw:name="Graphics 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="16.923cm" svg:height="17.451cm" svg:x="1.541cm" svg:y="0.117cm">
+            <draw:frame table:end-cell-address="画面設計.I90" table:end-x="1.206cm" table:end-y="0.408cm" draw:z-index="0" draw:name="Graphics 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="16.923cm" svg:height="17.451cm" svg:x="1.541cm" svg:y="0.117cm">
               <draw:image xlink:href="Pictures/100002010000029D000002C0C9B7F330.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -603,11 +603,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2025-08-10T03:11:21</dc:date>
+    <dc:date>2025-09-11T21:43:13</dc:date>
     <dc:creator>minami hirata</dc:creator>
     <meta:generator>OpenOffice/4.1.13$Unix OpenOffice.org_project/4113m1$Build-9810</meta:generator>
-    <meta:editing-duration>PT6H56M36S</meta:editing-duration>
-    <meta:editing-cycles>7</meta:editing-cycles>
+    <meta:editing-duration>PT9H33M26S</meta:editing-duration>
+    <meta:editing-cycles>8</meta:editing-cycles>
     <meta:document-statistic meta:table-count="3" meta:cell-count="74" meta:object-count="3"/>
   </office:meta>
 </office:document-meta>
@@ -638,7 +638,7 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">70</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="テーブル設計">
@@ -654,12 +654,12 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">70</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="画面設計">
-              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">8</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">16</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -668,16 +668,16 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">37</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">70</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">画面設計</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">664</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-          <config:config-item config:name="ZoomValue" config:type="int">70</config:config-item>
+          <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">false</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
@@ -1179,9 +1179,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2025-08-10">2025/08/10</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2025-09-11">2025/09/11</text:date>
             , 
-            <text:time>03:11:21</text:time>
+            <text:time>21:43:13</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/カンバンToDoアプリ設計.xlsx
+++ b/カンバンToDoアプリ設計.xlsx
@@ -49,26 +49,41 @@
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.556cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
+    <style:style style:name="ro3" style:family="table-row">
+      <style:table-row-properties style:row-height="0.469cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
     <style:style style:name="ro2" style:family="table-row">
       <style:table-row-properties style:row-height="0.554cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro3" style:family="table-row">
-      <style:table-row-properties style:row-height="0.469cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
     <style:style style:name="ro4" style:family="table-row">
       <style:table-row-properties style:row-height="1.584cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_画面設計">
-      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
-    </style:style>
     <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_テーブル設計">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_URL設計">
+    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_画面設計">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+    <style:style style:name="ta4" style:family="table" style:master-page-name="PageStyle_5f_URL設計">
+      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
+    </style:style>
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #f6f8f9" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #f6f8f9" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
@@ -112,70 +127,52 @@
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #f6f8f9" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #f6f8f9" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.035cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:font-size="11pt" style:font-size-asian="11pt" style:font-size-complex="11pt"/>
+    </style:style>
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="none" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:font-size="11pt" style:font-size-asian="11pt" style:font-size-complex="11pt"/>
+    </style:style>
+    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.035cm solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="none" fo:border-right="0.035cm solid #000000" fo:border-top="none"/>
+      <style:text-properties fo:font-size="11pt" style:font-size-asian="11pt" style:font-size-complex="11pt"/>
     </style:style>
     <style:style style:name="gr1" style:family="graphic">
       <style:graphic-properties draw:stroke="solid" svg:stroke-color="#000000" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
@@ -189,7 +186,7 @@
       <table:calculation-settings table:case-sensitive="false" table:automatic-find-labels="false" table:use-regular-expressions="false">
         <table:iteration table:maximum-difference="0.0001"/>
       </table:calculation-settings>
-      <table:table table:name="画面設計" table:style-name="ta1" table:print="false">
+      <table:table table:name="画面設計" table:style-name="ta3" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
@@ -197,7 +194,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>1. メイン画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -218,7 +215,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>2. タスク詳細画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -239,7 +236,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>3. タスク入力画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -478,7 +475,8 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="URL設計" table:style-name="ta3" table:print="false">
+      <table:table table:name="URL設計" table:style-name="ta4" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -490,101 +488,117 @@
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce14" office:value-type="string">
+          <table:table-cell table:style-name="ce18" office:value-type="string">
             <text:p>URL</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce17" office:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string">
             <text:p>Method</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce17" office:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string">
             <text:p>Content Type</text:p>
           </table:table-cell>
+          <table:table-cell table:style-name="ce24" office:value-type="string">
+            <text:p>目的</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>/api/tasks/</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>GET</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce25" office:value-type="string">
+            <text:p>一覧取得</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>/api/tasks/new/{status}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>POST</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce25" office:value-type="string">
+            <text:p>新規登録</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>/api/tasks/{id}/</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>GET</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce25" office:value-type="string">
+            <text:p>詳細取得</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>/api/tasks/{id}/</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>PUT</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce25" office:value-type="string">
+            <text:p>編集</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>/api/tasks/{id}/status</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>PATCH</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce25" office:value-type="string">
+            <text:p>状態更新</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
           <table:table-cell table:style-name="ce20" office:value-type="string">
-            <text:p>目的</text:p>
+            <text:p>/api/tasks/{id}/status</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce23" office:value-type="string">
+            <text:p>DELETE</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce23" office:value-type="string">
+            <text:p>JSON</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce26" office:value-type="string">
+            <text:p>削除</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce15" office:value-type="string">
-            <text:p>/api/tasks/</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
-            <text:p>GET</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
-            <text:p>JSON</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce21" office:value-type="string">
-            <text:p>一覧取得</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce15" office:value-type="string">
-            <text:p>/api/tasks/new/{status}</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
-            <text:p>POST</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
-            <text:p>JSON</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce21" office:value-type="string">
-            <text:p>新規登録</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce15" office:value-type="string">
-            <text:p>/api/tasks/{id}/</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
-            <text:p>GET</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
-            <text:p>JSON</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce21" office:value-type="string">
-            <text:p>詳細取得</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce15" office:value-type="string">
-            <text:p>/api/tasks/{id}/</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
-            <text:p>PUT</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
-            <text:p>JSON</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce21" office:value-type="string">
-            <text:p>編集</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce16" office:value-type="string">
-            <text:p>/api/tasks/{id}/status</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
-            <text:p>PATCH</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
-            <text:p>JSON</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
-            <text:p>状態更新</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048567">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048566">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -603,12 +617,12 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2025-09-11T21:43:13</dc:date>
+    <dc:date>2025-09-12T10:54:12</dc:date>
     <dc:creator>minami hirata</dc:creator>
     <meta:generator>OpenOffice/4.1.13$Unix OpenOffice.org_project/4113m1$Build-9810</meta:generator>
-    <meta:editing-duration>PT9H33M26S</meta:editing-duration>
-    <meta:editing-cycles>8</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="3" meta:cell-count="74" meta:object-count="3"/>
+    <meta:editing-duration>PT9H36M49S</meta:editing-duration>
+    <meta:editing-cycles>9</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="3" meta:cell-count="78" meta:object-count="3"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -627,7 +641,7 @@
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="URL設計">
               <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">12</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">19</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -674,7 +688,7 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">画面設計</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">URL設計</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">664</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
@@ -1179,9 +1193,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2025-09-11">2025/09/11</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2025-09-12">2025/09/12</text:date>
             , 
-            <text:time>21:43:13</text:time>
+            <text:time>10:54:12</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/カンバンToDoアプリ設計.xlsx
+++ b/カンバンToDoアプリ設計.xlsx
@@ -31,12 +31,6 @@
     <style:style style:name="co1" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.475cm"/>
     </style:style>
-    <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="3.798cm"/>
-    </style:style>
-    <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="3.455cm"/>
-    </style:style>
     <style:style style:name="co4" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="5.096cm"/>
     </style:style>
@@ -46,91 +40,32 @@
     <style:style style:name="co6" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="3.872cm"/>
     </style:style>
+    <style:style style:name="co7" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="3.798cm"/>
+    </style:style>
+    <style:style style:name="co8" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="3.861cm"/>
+    </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.556cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro3" style:family="table-row">
       <style:table-row-properties style:row-height="0.469cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro2" style:family="table-row">
+    <style:style style:name="ro4" style:family="table-row">
       <style:table-row-properties style:row-height="0.554cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ro4" style:family="table-row">
+    <style:style style:name="ro5" style:family="table-row">
       <style:table-row-properties style:row-height="1.584cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_テーブル設計">
-      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
-    </style:style>
-    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_画面設計">
-      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ta4" style:family="table" style:master-page-name="PageStyle_5f_URL設計">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #f6f8f9" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #f6f8f9" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #356854" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #f6f8f9" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #f6f8f9" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #356854" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #ffffff" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #f6f8f9" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_画面設計">
+      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
+    </style:style>
+    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_テーブル設計">
+      <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #000000" style:vertical-align="middle"/>
@@ -173,6 +108,74 @@
     <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="none" fo:border-right="0.035cm solid #000000" fo:border-top="none"/>
       <style:text-properties fo:font-size="11pt" style:font-size-asian="11pt" style:font-size-complex="11pt"/>
+    </style:style>
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #356854" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #f6f8f9" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #f6f8f9" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #284e3f" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #356854" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #ffffff" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.035cm solid #f6f8f9" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #ffffff" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #356854" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #284e3f" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #f6f8f9" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #f6f8f9" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #f6f8f9" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.035cm solid #284e3f" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.035cm solid #ffffff" style:direction="ltr" fo:border-right="0.035cm solid #284e3f" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.035cm solid #ffffff" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="gr1" style:family="graphic">
       <style:graphic-properties draw:stroke="solid" svg:stroke-color="#000000" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
@@ -186,15 +189,15 @@
       <table:calculation-settings table:case-sensitive="false" table:automatic-find-labels="false" table:use-regular-expressions="false">
         <table:iteration table:maximum-difference="0.0001"/>
       </table:calculation-settings>
-      <table:table table:name="画面設計" table:style-name="ta3" table:print="false">
+      <table:table table:name="画面設計" table:style-name="ta2" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce17" office:value-type="string">
+        <table:table-row table:style-name="ro4">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>1. メイン画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -213,9 +216,9 @@
         <table:table-row table:style-name="ro1" table:number-rows-repeated="16">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce17" office:value-type="string">
+        <table:table-row table:style-name="ro4">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>2. タスク詳細画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -234,9 +237,9 @@
         <table:table-row table:style-name="ro1" table:number-rows-repeated="36">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce17" office:value-type="string">
+        <table:table-row table:style-name="ro4">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>3. タスク入力画面</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -259,173 +262,194 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="テーブル設計" table:style-name="ta2" table:print="false">
+      <table:table table:name="テーブル設計" table:style-name="ta3" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co8" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1015" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce11" office:value-type="string">
             <text:p>No</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
+          <table:table-cell table:style-name="ce16" office:value-type="string">
             <text:p>論理名</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
+          <table:table-cell table:style-name="ce16" office:value-type="string">
             <text:p>物理名</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
+          <table:table-cell table:style-name="ce16" office:value-type="string">
             <text:p>型</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
+          <table:table-cell table:style-name="ce16" office:value-type="string">
             <text:p>PK</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
+          <table:table-cell table:style-name="ce16" office:value-type="string">
             <text:p>FK</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
+          <table:table-cell table:style-name="ce16" office:value-type="string">
             <text:p>NOT NULL</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce10" office:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string">
             <text:p>補足</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="1">
+        <table:table-row table:style-name="ro4">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce12" office:value-type="float" office:value="1">
             <text:p>1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>タスクID</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>id</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>INT AUTO_INCREMENT</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>〇</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce11"/>
+          <table:table-cell table:style-name="ce17" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce30"/>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="2">
+          <table:table-cell table:style-name="ce13" office:value-type="float" office:value="2">
             <text:p>2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
+            <text:p>バージョン</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce17" office:value-type="string">
+            <text:p>version</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce17" office:value-type="string">
+            <text:p>INT</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce17" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce30" office:value-type="string">
+            <text:p>楽観的ロックを使用</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce12" office:value-type="float" office:value="3">
+            <text:p>3</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>タイトル</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>title</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>VARCHAR(128)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>〇</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12"/>
+          <table:table-cell table:style-name="ce31"/>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="3">
-            <text:p>3</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce13" office:value-type="float" office:value="4">
+            <text:p>4</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>開始日</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>start_date</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>DATE</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce11"/>
+          <table:table-cell table:style-name="ce17" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce30"/>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="4">
-            <text:p>4</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce12" office:value-type="float" office:value="5">
+            <text:p>5</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>期限</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>due_date</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>DATE</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce12"/>
+          <table:table-cell table:style-name="ce27" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce31"/>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="5">
-            <text:p>5</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce13" office:value-type="float" office:value="6">
+            <text:p>6</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>完了条件</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>condition</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>VARCHAR(128)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce11"/>
+          <table:table-cell table:style-name="ce17" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce30"/>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="6">
-            <text:p>6</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce12" office:value-type="float" office:value="7">
+            <text:p>7</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>メモ</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>memo</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>TEXT</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce12"/>
+          <table:table-cell table:style-name="ce27" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce31"/>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce3" office:value-type="float" office:value="7">
-            <text:p>7</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+        <table:table-row table:style-name="ro5">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="float" office:value="8">
+            <text:p>8</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>状態</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>status</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string">
+          <table:table-cell table:style-name="ce17" office:value-type="string">
             <text:p>INT</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce11" office:value-type="string">
+          <table:table-cell table:style-name="ce17" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>1...未着手</text:p>
             <text:p>2...進行中</text:p>
             <text:p>3...完了</text:p>
@@ -434,41 +458,41 @@
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="8">
-            <text:p>8</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce14" office:value-type="float" office:value="9">
+            <text:p>9</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>登録日時</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>created_at</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>TIMESTAMP</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce12"/>
+          <table:table-cell table:style-name="ce27" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce31"/>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="9">
-            <text:p>9</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce9" office:value-type="string">
+          <table:table-cell table:style-name="ce15" office:value-type="float" office:value="10">
+            <text:p>10</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce28" office:value-type="string">
             <text:p>更新日時</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" office:value-type="string">
+          <table:table-cell table:style-name="ce28" office:value-type="string">
             <text:p>updated_at</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" office:value-type="string">
+          <table:table-cell table:style-name="ce28" office:value-type="string">
             <text:p>TIMESTAMP</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce32"/>
           <table:table-cell table:number-columns-repeated="1015"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048563">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048562">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -606,7 +630,7 @@
         </table:table-row>
       </table:table>
       <table:database-ranges>
-        <table:database-range table:name="task" table:target-range-address="テーブル設計.B3:テーブル設計.I12"/>
+        <table:database-range table:name="task" table:target-range-address="テーブル設計.B3:テーブル設計.I13"/>
         <table:database-range table:name="URL一覧" table:target-range-address="URL設計.B3:URL設計.E7"/>
       </table:database-ranges>
     </office:spreadsheet>
@@ -617,12 +641,12 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2025-09-12T10:54:12</dc:date>
+    <dc:date>2025-09-19T17:49:17</dc:date>
     <dc:creator>minami hirata</dc:creator>
     <meta:generator>OpenOffice/4.1.13$Unix OpenOffice.org_project/4113m1$Build-9810</meta:generator>
-    <meta:editing-duration>PT9H36M49S</meta:editing-duration>
-    <meta:editing-cycles>9</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="3" meta:cell-count="78" meta:object-count="3"/>
+    <meta:editing-duration>PT11H42M25S</meta:editing-duration>
+    <meta:editing-cycles>11</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="3" meta:cell-count="83" meta:object-count="3"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -631,10 +655,10 @@
 <office:document-settings xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:config="urn:oasis:names:tc:opendocument:xmlns:config:1.0" xmlns:ooo="http://openoffice.org/2004/office" office:version="1.2">
   <office:settings>
     <config:config-item-set config:name="ooo:view-settings">
-      <config:config-item config:name="VisibleAreaTop" config:type="int">553</config:config-item>
+      <config:config-item config:name="VisibleAreaTop" config:type="int">1107</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">2465</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">19724</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">49261</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">14329</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">3358</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -656,8 +680,8 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="テーブル設計">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">9</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">2</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -688,7 +712,7 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">URL設計</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">テーブル設計</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">664</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
@@ -1193,9 +1217,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2025-09-12">2025/09/12</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2025-09-19">2025/09/19</text:date>
             , 
-            <text:time>10:54:12</text:time>
+            <text:time>17:49:17</text:time>
           </text:p>
         </style:region-right>
       </style:header>
